--- a/analysis/data_commit/rob_analysis/rob_case_control.xlsx
+++ b/analysis/data_commit/rob_analysis/rob_case_control.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC5394A1-1261-459F-BCFC-3E2A28BA5084}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ac4294_cumc_columbia_edu/Documents/documents/papers/ryr_database/AHA_circulation-r1/risk of bias/rob_analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="160" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D859C3E-D9A4-0E4F-9340-DAA1C667F958}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
   <si>
     <t>publication_id</t>
   </si>
@@ -223,13 +228,136 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/tpj.2012.14</t>
+  </si>
+  <si>
+    <t>Postmortem genetic analysis of sudden unexplained death syndrome under 50 years of age: A next-generation sequencing study</t>
+  </si>
+  <si>
+    <t>Hata, Y.</t>
+  </si>
+  <si>
+    <t>10.1016/j.hrthm.2016.03.038</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27005929</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.hrthm.2016.03.038</t>
+  </si>
+  <si>
+    <t>Spectrum and prevalence of cardiac ryanodine receptor (RyR2) mutations in a cohort of unrelated patients referred explicitly for Long QT Syndrome genetic testing</t>
+  </si>
+  <si>
+    <t>Tester, DJ</t>
+  </si>
+  <si>
+    <t>10.1016/j.hrthm.2005.07.012</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16188589</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.hrthm.2005.07.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human cardiac ryanodine receptor mutations in ion channel disorders in Japan </t>
+  </si>
+  <si>
+    <t>Aizawa, Y</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijcard.2006.02.024</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/16843546</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijcard.2006.02.024</t>
+  </si>
+  <si>
+    <t>Spectrum and frequency of cardiac channel defects in swimming-triggered arrhythmia syndromes.</t>
+  </si>
+  <si>
+    <t>Choi, G</t>
+  </si>
+  <si>
+    <t>10.1161/01.CIR.0000144471.98080.CA</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15466642</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/01.CIR.0000144471.98080.CA</t>
+  </si>
+  <si>
+    <t>Molecular genetic analysis of long QT syndrome in Norway indicating a high prevalence of Heterozygous mutation carriers</t>
+  </si>
+  <si>
+    <t>Berge, KE</t>
+  </si>
+  <si>
+    <t>10.1080/00365510701765643</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18752142</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00365510701765643</t>
+  </si>
+  <si>
+    <t>Postmortem genetic testing of the ryanodine receptor 2 (RYR2) gene in a cohort of sudden unexplained death cases</t>
+  </si>
+  <si>
+    <t>Larsen, MK</t>
+  </si>
+  <si>
+    <t>10.1007/s00414-011-0658-2</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/22222782</t>
+  </si>
+  <si>
+    <t>Candidate colorectal cancer predisposing gene variants in Chinese early-onset and familial cases</t>
+  </si>
+  <si>
+    <t>Zhang, JX</t>
+  </si>
+  <si>
+    <t>10.3748/wjg.v21.i14.4136</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/25892863</t>
+  </si>
+  <si>
+    <t>Genetic investigations of sudden unexpected deaths in infancy using next-generation sequencing of 100 genes associated with cardiac diseases</t>
+  </si>
+  <si>
+    <t>Hertz, CL</t>
+  </si>
+  <si>
+    <t>10.1038/ejhg.2015.198</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Phenotype-driven molecular autopsy for sudden cardiac death</t>
+  </si>
+  <si>
+    <t>Cann, F.</t>
+  </si>
+  <si>
+    <t>10.1111/cge.12778</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/27000522</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +369,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -284,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -296,6 +425,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,18 +761,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="20" width="17.85546875" customWidth="1"/>
+    <col min="9" max="20" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="188.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>59</v>
       </c>
@@ -765,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>80</v>
       </c>
@@ -827,7 +958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>109</v>
       </c>
@@ -889,7 +1020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>116</v>
       </c>
@@ -951,7 +1082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>712</v>
       </c>
@@ -1013,7 +1144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>813</v>
       </c>
@@ -1048,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
         <v>25</v>
@@ -1075,7 +1206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>845</v>
       </c>
@@ -1110,7 +1241,7 @@
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
@@ -1137,7 +1268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1142</v>
       </c>
@@ -1196,6 +1327,577 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="5" t="b">
+        <f t="shared" ref="G10:G18" si="0">IF(H10=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>141</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>171</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>343</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>352</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>472</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f t="shared" ref="F15:F18" si="1">IF(D15&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D15),"")</f>
+        <v>https://doi.org/10.1007/s00414-011-0658-2</v>
+      </c>
+      <c r="G15" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>748</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://doi.org/10.3748/wjg.v21.i14.4136</v>
+      </c>
+      <c r="G16" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>1055</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://doi.org/10.1038/ejhg.2015.198</v>
+      </c>
+      <c r="G17" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>1058</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://doi.org/10.1111/cge.12778</v>
+      </c>
+      <c r="G18" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" t="s">
         <v>26</v>
       </c>
     </row>

--- a/analysis/data_commit/rob_analysis/rob_case_control.xlsx
+++ b/analysis/data_commit/rob_analysis/rob_case_control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ac4294_cumc_columbia_edu/Documents/documents/papers/ryr_database/AHA_circulation-r1/risk of bias/rob_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D859C3E-D9A4-0E4F-9340-DAA1C667F958}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD3E2B8F-E80B-AA49-98F1-7047EBC95D54}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="97">
   <si>
     <t>publication_id</t>
   </si>
@@ -327,30 +327,6 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/25892863</t>
-  </si>
-  <si>
-    <t>Genetic investigations of sudden unexpected deaths in infancy using next-generation sequencing of 100 genes associated with cardiac diseases</t>
-  </si>
-  <si>
-    <t>Hertz, CL</t>
-  </si>
-  <si>
-    <t>10.1038/ejhg.2015.198</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Phenotype-driven molecular autopsy for sudden cardiac death</t>
-  </si>
-  <si>
-    <t>Cann, F.</t>
-  </si>
-  <si>
-    <t>10.1111/cge.12778</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/27000522</t>
   </si>
 </sst>
 </file>
@@ -413,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -425,8 +401,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1331,35 +1305,35 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="5" t="b">
-        <f t="shared" ref="G10:G18" si="0">IF(H10=1,TRUE,FALSE)</f>
+      <c r="G10" t="b">
+        <f>IF(H10=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K10" t="s">
@@ -1394,35 +1368,35 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>141</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="5" t="b">
-        <f t="shared" si="0"/>
+      <c r="G11" t="b">
+        <f>IF(H11=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K11" t="s">
@@ -1457,42 +1431,42 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>171</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="5" t="b">
-        <f t="shared" si="0"/>
+      <c r="G12" t="b">
+        <f>IF(H12=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>
@@ -1520,35 +1494,35 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13">
         <v>343</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="5" t="b">
-        <f t="shared" si="0"/>
+      <c r="G13" t="b">
+        <f>IF(H13=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K13" t="s">
@@ -1583,35 +1557,35 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14">
         <v>352</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="5" t="b">
-        <f t="shared" si="0"/>
+      <c r="G14" t="b">
+        <f>IF(H14=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K14" t="s">
@@ -1646,36 +1620,36 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>472</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="5" t="str">
-        <f t="shared" ref="F15:F18" si="1">IF(D15&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D15),"")</f>
+      <c r="F15" t="str">
+        <f>IF(D15&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D15),"")</f>
         <v>https://doi.org/10.1007/s00414-011-0658-2</v>
       </c>
-      <c r="G15" s="5" t="b">
-        <f t="shared" si="0"/>
+      <c r="G15" t="b">
+        <f>IF(H15=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K15" t="s">
@@ -1710,36 +1684,36 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>748</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="F16" t="str">
+        <f>IF(D16&lt;&gt;"N/A",_xlfn.CONCAT("https://doi.org/",D16),"")</f>
         <v>https://doi.org/10.3748/wjg.v21.i14.4136</v>
       </c>
-      <c r="G16" s="5" t="b">
-        <f t="shared" si="0"/>
+      <c r="G16" t="b">
+        <f>IF(H16=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K16" t="s">
@@ -1770,134 +1744,6 @@
         <v>26</v>
       </c>
       <c r="T16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>1055</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://doi.org/10.1038/ejhg.2015.198</v>
-      </c>
-      <c r="G17" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>5</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>1058</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://doi.org/10.1111/cge.12778</v>
-      </c>
-      <c r="G18" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18" t="s">
         <v>26</v>
       </c>
     </row>
